--- a/docs/Self-Assessment.xlsx
+++ b/docs/Self-Assessment.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianoroceo/eqa-UI-exam/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karthiks/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C864E42-CA15-504D-AE15-181CA8DB267B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A9E9C7-63EC-D545-B478-F8C698623FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60120" yWindow="5240" windowWidth="26000" windowHeight="19820" xr2:uid="{5AF992D8-3970-E840-BB78-D2E0A4AA53D7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{5AF992D8-3970-E840-BB78-D2E0A4AA53D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -143,14 +134,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -165,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Criteria</t>
   </si>
@@ -315,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -410,12 +401,73 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -425,44 +477,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -476,63 +493,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -548,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
@@ -570,18 +531,16 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -593,19 +552,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -617,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -641,7 +594,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -974,209 +927,235 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="25" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <f>SUM(G3:G7)*25%</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="19" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="24" cm="1">
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="22" cm="1">
         <f t="array" ref="G3">_xlfn.IFS(F3="Completed",0.2,F3="Partially Completed",0.1,F3="Not Completed",0,F3="",0)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="24" t="s">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <f>SUM(G11:G15)*75%</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="20" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="24" cm="1">
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="22" cm="1">
         <f t="array" ref="G4">_xlfn.IFS(F4="Completed",0.2,F4="Partially Completed",0.1,F4="Not Completed",0,F4="",0)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="24" t="s">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <f>SUM(G18:G20)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="24" cm="1">
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="22" cm="1">
         <f t="array" ref="G5">_xlfn.IFS(F5="Completed",0.2,F5="Partially Completed",0.1,F5="Not Completed",0,F5="",0)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="24" t="s">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <f>SUM(C3:C5)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="24" cm="1">
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="22" cm="1">
         <f t="array" ref="G6">_xlfn.IFS(F6="Completed",0.2,F6="Partially Completed",0.1,F6="Not Completed",0,F6="",0)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="24"/>
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="17" t="str" cm="1">
+      <c r="C7" s="15" t="str" cm="1">
         <f t="array" ref="C7">_xlfn.IFS(C6&gt;80%,"PASSED",C6=0%,"COMPLETE FORM TO GET RATING",C6&lt;80%,"FAILED")</f>
-        <v>COMPLETE FORM TO GET RATING</v>
-      </c>
-      <c r="E7" s="21" t="s">
+        <v>PASSED</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="24" cm="1">
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="22" cm="1">
         <f t="array" ref="G7">_xlfn.IFS(F7="Completed",0.2,F7="Partially Completed",0.1,F7="Not Completed",0,F7="",0)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="24"/>
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="22"/>
     </row>
     <row r="9" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="24" cm="1">
+      <c r="F11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="22" cm="1">
         <f t="array" ref="G11">_xlfn.IFS(F11="Completed",0.2,F11="Partially Completed",0.05,F11="Not Completed",0,F11="",0)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="24" cm="1">
+      <c r="F12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="22" cm="1">
         <f t="array" ref="G12">_xlfn.IFS(F12="Completed",0.2,F12="Partially Completed",0.05,F12="Not Completed",0,F12="",0)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="24" cm="1">
+      <c r="F13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="22" cm="1">
         <f t="array" ref="G13">_xlfn.IFS(F13="Completed",0.2,F13="Partially Completed",0.05,F13="Not Completed",0,F13="",0)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="24" cm="1">
+      <c r="F14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="22" cm="1">
         <f t="array" ref="G14">_xlfn.IFS(F14="Completed",0.2,F14="Partially Completed",0.05,F14="Not Completed",0,F14="",0)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="24" cm="1">
+      <c r="F15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="22" cm="1">
         <f t="array" ref="G15">_xlfn.IFS(F15="Completed",0.2,F15="Partially Completed",0.05,F15="Not Completed",0,F15="",0)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="5:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="24" cm="1">
+      <c r="F18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="22" cm="1">
         <f t="array" ref="G18">_xlfn.IFS(F18="Completed",0.4,F18="Partially Completed",0,F18="Not Completed",0,F18="",0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="5:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="24" cm="1">
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="22" cm="1">
         <f t="array" ref="G19">_xlfn.IFS(F19="Completed",0.3,F19="Partially Completed",0,F19="Not Completed",0,F19="",0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="5:7" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="24" cm="1">
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="22" cm="1">
         <f t="array" ref="G20">_xlfn.IFS(F20="Completed",0.3,F20="Partially Completed",0,F20="Not Completed",0,F20="",0)</f>
         <v>0</v>
       </c>
